--- a/main/static/training_lists_empty/training_generator_template.xlsx
+++ b/main/static/training_lists_empty/training_generator_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hubert\Desktop\studia pwr\notatki\semestr 7\piizsw\main\static\training_lists_empty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD527AA6-42D2-492D-9749-A611DDEFC56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B2B2D2-3D7A-4999-9864-4ADA2B58A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31155" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Dział</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Temat szkolenia</t>
   </si>
@@ -51,42 +48,6 @@
     <t>Podpis pracownika i data</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Bosch Office Sans"/>
-      </rPr>
-      <t>(**)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Bosch Office Sans"/>
-      </rPr>
-      <t xml:space="preserve"> DATA kontroli efektywności szkolenia i </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Bosch Office Sans"/>
-      </rPr>
-      <t>PODPIS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Bosch Office Sans"/>
-      </rPr>
-      <t xml:space="preserve"> sprawdzającego</t>
-    </r>
-  </si>
-  <si>
     <t>L.p.</t>
   </si>
 </sst>
@@ -94,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,34 +78,12 @@
       <name val="Bosch Office Sans"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Bosch Office Sans"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Bosch Office Sans"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Bosch Office Sans"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Bosch Office Sans"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Bosch Office Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6"/>
       <color theme="1"/>
       <name val="Bosch Office Sans"/>
     </font>
@@ -163,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -225,16 +164,7 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -242,34 +172,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -278,69 +195,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -638,339 +545,268 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="51.75" customHeight="1"/>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.85" customHeight="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" ht="78.75" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" ht="12" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" ht="26.85" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="6" customHeight="1">
+      <c r="B7" s="5"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" ht="78.75" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" ht="12" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="11" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" ht="6" customHeight="1">
-      <c r="B8" s="6"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A17" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A10" s="13">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A11" s="13">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A12" s="13">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A13" s="13">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A14" s="13">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A15" s="13">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A16" s="13">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A17" s="13">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A18" s="13">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+    <row r="18" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A19" s="13">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+    <row r="19" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A20" s="13">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+    <row r="20" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A21" s="13">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+    <row r="21" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A22" s="13">
-        <v>13</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+    <row r="22" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A23" s="13">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+    <row r="23" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A24" s="13">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+    <row r="24" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A25" s="13">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+    <row r="25" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A26" s="13">
-        <v>17</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
+    <row r="26" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A27" s="13">
-        <v>18</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+    <row r="27" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A28" s="13">
-        <v>19</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+    <row r="28" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A29" s="13">
-        <v>20</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="19.7" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="21"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="22"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="10">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A31:D38"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="1.0416666666666666E-2" bottom="0.27083333333333331" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
